--- a/biology/Zoologie/Australothele_maculata/Australothele_maculata.xlsx
+++ b/biology/Zoologie/Australothele_maculata/Australothele_maculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Australothele maculata est une espèce d'araignées mygalomorphes de la famille des Euagridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Australothele maculata est une espèce d'araignées mygalomorphes de la famille des Euagridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre dans le parc national de Lamington.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre dans le parc national de Lamington.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 5,52 mm de long sur 4,40 mm et l'abdomen 6,10 mm de long sur 4,05 mm et la carapace de la femelle paratype mesure 4,69 mm de long sur 3,63 mm et l'abdomen 4,06 mm de long sur 3,44 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 5,52 mm de long sur 4,40 mm et l'abdomen 6,10 mm de long sur 4,05 mm et la carapace de la femelle paratype mesure 4,69 mm de long sur 3,63 mm et l'abdomen 4,06 mm de long sur 3,44 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Raven, 1984 : Systematics of the Australian curtain-web spiders (Ischnothelinae: Dipluridae: Chelicerata). Australian Journal of Zoology Supplementary Series, no 93, p. 1-102.</t>
         </is>
